--- a/data/pravno/zakoni/55-4.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
+++ b/data/pravno/zakoni/55-4.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
@@ -407,5 +407,5 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><sheetPr><outlinePr summaryBelow="1" summaryRight="1" /><pageSetUpPr /></sheetPr><dimension ref="B1:U1" /><sheetViews><sheetView workbookViewId="0"><selection activeCell="A1" sqref="A1" /></sheetView></sheetViews><sheetFormatPr baseColWidth="8" defaultRowHeight="15" /><sheetData><row r="1"><c r="B1" t="inlineStr"><is><t>3</t></is></c><c r="C1" t="inlineStr"><is><t>mogu se \nudruživati u sportska društva (korištenje sportskog objekta i dr.).</t></is></c><c r="D1" t="inlineStr"><is><t>i instruktori (3) pripadajućeg (4) \nmogu druge stručne osobe u sportu te navijači.. Svoje udruge mogu osnivati i profesionalni sportski klubovi istog sporta i članovi su nacionalnog sportskog saveza. Radi ostvarivanja zajedničkih sportskih interesa sportski klubovi različitih sportova</t></is></c><c r="E1" t="inlineStr"><is><t>(1) kojima osnovni (2) \nRadi ostvarivanja zajedničkih interesa i ciljeva mogu se osnivati udruge u sportu cilj djelovanja nije sudjelovanje u sportskim natjecanjima. Svoje udruge osnivati sportski suci i delegati, sportaši, sportski treneri te učitelji</t></is></c><c r="F1" t="inlineStr"><is><t>prema postupku \npropisanom ovim Zakonom. Članak 14.</t></is></c><c r="G1" t="inlineStr"><is><t>Sportski \nklub može promijeniti status u profesionalni sportski klub u skladu s uvjetima i</t></is></c><c r="H1" t="inlineStr"><is><t>općim aktima (2) (igrati) najviše \nnacionalnih sportskih saveza. ekipi amaterskog sportskog kluba momčadskog sporta istovremeno može 50% igrača sa statusom sportaša profesionalca.</t></is></c><c r="I1" t="inlineStr"><is><t>(1) \nNastupi sportaša amatera i sportaša profesionalaca u sportskim klubovima uređuju se nastupati</t></is></c><c r="J1" t="inlineStr"><is><t>Članak 12.</t></is></c><c r="K1" t="inlineStr"><is><t>nacionalnoga \nsportskog saveza čiji je član.</t></is></c><c r="L1" t="inlineStr"><is><t>(2) \nSportski klub u strukovnim i sportskim pitanjima djeluje prema općim aktima</t></is></c><c r="M1" t="inlineStr"><is><t>sjedištu kluba.</t></is></c><c r="N1" t="inlineStr"><is><t>(1) \nČlanak 11. Sportski klub određuje visinu članarine svojim aktom koji biti dostupan</t></is></c><c r="O1" t="inlineStr"><is><t>(5) \nSportski klub odgovara za obveze svojom cjelokupnom imovinom.</t></is></c><c r="P1" t="inlineStr"><is><t>imovina su (3) (4) članove ili \nsportskog kluba. Sportski klub je neprofitna udruga. Sportski klub ne smije obavljati djelatnosti radi stjecanja dobiti za svoje osnivače, treće osobe.</t></is></c><c r="Q1" t="inlineStr"><is><t>(1) imovinska (2) \nImovinu sportskog kluba čine novčana sredstva, nepokretne i pokretne stvari i neimovinska prava. Sredstva koja su osnivači i članovi sportskog kluba unijeli u klub po bilo kojoj osnovi</t></is></c><c r="R1" t="inlineStr"><is><t>Članak 10.</t></is></c><c r="S1" t="inlineStr"><is><t>U kladionica \ntijelima sportskog kluba ne mogu biti i imati ovlasti u zastupanju vlasnici sportskih menadžeri sportaša, kao i osobe koje su to bile u posljednjih pet godina.</t></is></c><c r="T1" t="inlineStr"><is><t>Članak 9.</t></is></c><c r="U1" t="inlineStr"><is><t>i (3) (4) \nsociološko￾kulturne humane zadaće. Sportski klub može osnovati i jedna pravna osoba. Sportski klub u svom nazivu može umjesto riječi «klub» rabiti riječ «društvo».</t></is></c></row></sheetData><pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5" /></worksheet>
+<file path=xl/worksheets/sheet1.xml><worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><sheetPr><outlinePr summaryBelow="1" summaryRight="1" /><pageSetUpPr /></sheetPr><dimension ref="B1:T1" /><sheetViews><sheetView workbookViewId="0"><selection activeCell="A1" sqref="A1" /></sheetView></sheetViews><sheetFormatPr baseColWidth="8" defaultRowHeight="15" /><sheetData><row r="1"><c r="B1" t="inlineStr"><is><t>3</t></is></c><c r="C1" t="inlineStr"><is><t>mogu</t></is></c><c r="D1" t="inlineStr"><is><t>(3) Svoje pripadajućeg (4) Radi udruživati \ndruge u sportu navijači.. udruge mogu osnivati i profesionalni sportski klubovi istog sporta i članovi su nacionalnog sportskog saveza. ostvarivanja zajedničkih sportskih interesa sportski klubovi različitih sportova sportska društva (korištenje sportskog objekta i dr.).</t></is></c><c r="E1" t="inlineStr"><is><t>(1) Radi kojima osnovni (2) Svoje i instruktori i \nostvarivanja zajedničkih interesa i ciljeva mogu se osnivati udruge u sportu cilj djelovanja nije sudjelovanje u sportskim natjecanjima. udruge mogu osnivati sportski suci i delegati, sportaši, sportski treneri te učitelji stručne osobe te</t></is></c><c r="F1" t="inlineStr"><is><t>Članak 14.</t></is></c><c r="G1" t="inlineStr"><is><t>Sportski prema postupku \nklub može promijeniti status u profesionalni sportski klub u skladu s uvjetima propisanom ovim Zakonom.</t></is></c><c r="H1" t="inlineStr"><is><t>općim aktima (2) U (igrati) najviše \nnacionalnih sportskih saveza. ekipi amaterskog sportskog kluba momčadskog sporta istovremeno može 50% igrača sa statusom sportaša profesionalca. Članak 13.</t></is></c><c r="I1" t="inlineStr"><is><t>(1) \nNastupi sportaša amatera i sportaša profesionalaca u sportskim klubovima uređuju se nastupati</t></is></c><c r="J1" t="inlineStr"><is><t>Članak 12.</t></is></c><c r="K1" t="inlineStr"><is><t>nacionalnoga \nsportskog saveza čiji je član.</t></is></c><c r="L1" t="inlineStr"><is><t>(1) sjedištu kluba. (2) \nSportski određuje svojim koji mora dostupan Sportski klub u strukovnim i sportskim pitanjima djeluje prema općim aktima</t></is></c><c r="M1" t="inlineStr"><is><t>Članak 11. klub visinu članarine aktom biti</t></is></c><c r="N1" t="inlineStr"><is><t>(5) \nSportski klub odgovara za obveze svojom cjelokupnom imovinom.</t></is></c><c r="O1" t="inlineStr"><is><t>(3) (4) \nSportski klub je neprofitna udruga. Sportski klub ne smije obavljati djelatnosti radi stjecanja dobiti za svoje osnivače,</t></is></c><c r="P1" t="inlineStr"><is><t>(1) imovinska i (2) imovina su \nsportskog nepokretne pokretne neimovinska prava. Sredstva koja su osnivači i članovi sportskog kluba unijeli u klub po bilo kojoj osnovi sportskog kluba.</t></is></c><c r="Q1" t="inlineStr"><is><t>Članak 10. Imovinu kluba čine novčana sredstva, i stvari</t></is></c><c r="R1" t="inlineStr"><is><t>U tijelima kladionica i \nsportskog kluba ne mogu biti i imati ovlasti u zastupanju vlasnici sportskih menadžeri sportaša, kao i osobe koje su to bile u posljednjih pet godina.</t></is></c><c r="S1" t="inlineStr"><is><t>Članak 9.</t></is></c><c r="T1" t="inlineStr"><is><t>i humane (3) (4) \nsociološko￾kulturne zadaće. Sportski klub može osnovati i jedna pravna osoba. Sportski klub u svom nazivu može umjesto riječi «klub» rabiti riječ «društvo».</t></is></c></row></sheetData><pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5" /></worksheet>
 </file>